--- a/template/rekaps_temp.xlsx
+++ b/template/rekaps_temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpexcel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebDev\PKL-BKD\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1339,174 +1339,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1540,6 +1372,174 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1849,207 +1849,201 @@
       <c r="A3" s="205">
         <v>1</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
     </row>
     <row r="4" spans="1:8" s="203" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="205">
         <v>2</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
     </row>
     <row r="5" spans="1:8" s="203" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="205">
         <v>3</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
     </row>
     <row r="6" spans="1:8" s="203" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="205">
         <v>4</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
     </row>
     <row r="7" spans="1:8" s="203" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="205">
         <v>5</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
     </row>
     <row r="8" spans="1:8" s="203" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="205">
         <v>6</v>
       </c>
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="1:8" s="203" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="205">
         <v>7</v>
       </c>
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="219" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
     </row>
     <row r="10" spans="1:8" s="203" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="205">
         <v>8</v>
       </c>
-      <c r="B10" s="208" t="s">
+      <c r="B10" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
     </row>
     <row r="11" spans="1:8" s="203" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="205">
         <v>9</v>
       </c>
-      <c r="B11" s="208" t="s">
+      <c r="B11" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="208"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
     </row>
     <row r="12" spans="1:8" s="203" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="205">
         <v>10</v>
       </c>
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
     </row>
     <row r="13" spans="1:8" s="203" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="203">
         <v>11</v>
       </c>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="219" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="204"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="205"/>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="205"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="205"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="205"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H17"/>
@@ -2059,6 +2053,12 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2114,88 +2114,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="224"/>
-      <c r="AI1" s="224"/>
-      <c r="AJ1" s="224"/>
-      <c r="AK1" s="224"/>
-      <c r="AL1" s="224"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="223"/>
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="223"/>
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="223"/>
+      <c r="AG1" s="223"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="223"/>
+      <c r="AJ1" s="223"/>
+      <c r="AK1" s="223"/>
+      <c r="AL1" s="223"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="223"/>
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="223"/>
+      <c r="AG2" s="223"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="223"/>
+      <c r="AK2" s="223"/>
+      <c r="AL2" s="223"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -2235,146 +2235,146 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="229" t="s">
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="218" t="s">
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="232"/>
-      <c r="T4" s="233" t="s">
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="234"/>
-      <c r="V4" s="234"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="234"/>
-      <c r="AA4" s="234"/>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="234"/>
-      <c r="AG4" s="234"/>
-      <c r="AH4" s="234"/>
-      <c r="AI4" s="234"/>
-      <c r="AJ4" s="234"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="235"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="237"/>
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="237"/>
+      <c r="AF4" s="237"/>
+      <c r="AG4" s="237"/>
+      <c r="AH4" s="237"/>
+      <c r="AI4" s="237"/>
+      <c r="AJ4" s="237"/>
+      <c r="AK4" s="237"/>
+      <c r="AL4" s="238"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="225"/>
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="236" t="s">
+      <c r="C5" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="236" t="s">
+      <c r="D5" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="238" t="s">
+      <c r="F5" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="212" t="s">
+      <c r="G5" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="212" t="s">
+      <c r="H5" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="209" t="s">
+      <c r="I5" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="211"/>
-      <c r="K5" s="222" t="s">
+      <c r="J5" s="244"/>
+      <c r="K5" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="212" t="s">
+      <c r="L5" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="214" t="s">
+      <c r="M5" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="216" t="s">
+      <c r="N5" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="218" t="s">
+      <c r="O5" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="219"/>
-      <c r="T5" s="220" t="s">
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="234"/>
+      <c r="T5" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="209" t="s">
+      <c r="U5" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="210"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="209" t="s">
+      <c r="V5" s="245"/>
+      <c r="W5" s="245"/>
+      <c r="X5" s="245"/>
+      <c r="Y5" s="245"/>
+      <c r="Z5" s="245"/>
+      <c r="AA5" s="245"/>
+      <c r="AB5" s="245"/>
+      <c r="AC5" s="244"/>
+      <c r="AD5" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="211"/>
+      <c r="AE5" s="245"/>
+      <c r="AF5" s="245"/>
+      <c r="AG5" s="245"/>
+      <c r="AH5" s="245"/>
+      <c r="AI5" s="245"/>
+      <c r="AJ5" s="245"/>
+      <c r="AK5" s="245"/>
+      <c r="AL5" s="244"/>
     </row>
     <row r="6" spans="1:38" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="213"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
       <c r="I6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="223"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="217"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="226"/>
+      <c r="M6" s="247"/>
+      <c r="N6" s="249"/>
       <c r="O6" s="16" t="s">
         <v>25</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="S6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="221"/>
+      <c r="T6" s="251"/>
       <c r="U6" s="17" t="s">
         <v>29</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="AB7" s="19">
         <v>28</v>
       </c>
-      <c r="AC7" s="264">
+      <c r="AC7" s="208">
         <v>29</v>
       </c>
       <c r="AD7" s="19">
@@ -2558,15 +2558,15 @@
       <c r="AK7" s="19">
         <v>37</v>
       </c>
-      <c r="AL7" s="264">
+      <c r="AL7" s="208">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="265"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="266"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="23"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -2576,40 +2576,40 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="267">
+      <c r="N8" s="211">
         <f>SUM(O8:S8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="267"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="267"/>
-      <c r="S8" s="267"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
       <c r="T8" s="24"/>
       <c r="U8" s="25"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="270"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="213"/>
+      <c r="X8" s="214"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="271"/>
-      <c r="AB8" s="271"/>
-      <c r="AC8" s="267"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="211"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="270"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="213"/>
+      <c r="AG8" s="214"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="25"/>
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
-      <c r="AL8" s="267"/>
+      <c r="AL8" s="211"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="265"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="266"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="23"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -2619,40 +2619,40 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="267">
+      <c r="N9" s="211">
         <f t="shared" ref="N9:N10" si="0">SUM(O9:S9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="267"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211"/>
       <c r="T9" s="24"/>
       <c r="U9" s="25"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="270"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="213"/>
+      <c r="X9" s="214"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="25"/>
-      <c r="AA9" s="271"/>
-      <c r="AB9" s="271"/>
-      <c r="AC9" s="267"/>
+      <c r="AA9" s="215"/>
+      <c r="AB9" s="215"/>
+      <c r="AC9" s="211"/>
       <c r="AD9" s="25"/>
-      <c r="AE9" s="272"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="270"/>
+      <c r="AE9" s="216"/>
+      <c r="AF9" s="213"/>
+      <c r="AG9" s="214"/>
       <c r="AH9" s="27"/>
       <c r="AI9" s="25"/>
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
-      <c r="AL9" s="267"/>
+      <c r="AL9" s="211"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="265"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="266"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="23"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -2662,34 +2662,34 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="267">
+      <c r="N10" s="211">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="267"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="267"/>
-      <c r="S10" s="267"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
       <c r="T10" s="24"/>
       <c r="U10" s="25"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="270"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="214"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="25"/>
-      <c r="AA10" s="271"/>
-      <c r="AB10" s="271"/>
-      <c r="AC10" s="267"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="211"/>
       <c r="AD10" s="25"/>
-      <c r="AE10" s="273"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="270"/>
+      <c r="AE10" s="217"/>
+      <c r="AF10" s="213"/>
+      <c r="AG10" s="214"/>
       <c r="AH10" s="27"/>
       <c r="AI10" s="25"/>
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
-      <c r="AL10" s="267"/>
+      <c r="AL10" s="211"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -6088,6 +6088,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AD5:AL5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:AC5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:AL2"/>
@@ -6104,13 +6111,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="AD5:AL5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:AC5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6121,13 +6121,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="165" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="165" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="165" customWidth="1"/>
     <col min="3" max="3" width="17" style="165" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="165" bestFit="1" customWidth="1"/>
@@ -6148,48 +6148,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="252" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="150"/>
@@ -6212,10 +6212,10 @@
       <c r="R3" s="152"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="253" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="255" t="s">
@@ -6236,84 +6236,84 @@
       <c r="H4" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="243" t="s">
+      <c r="J4" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="244"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="246" t="s">
+      <c r="K4" s="265"/>
+      <c r="L4" s="265"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="248"/>
+      <c r="O4" s="268"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="269"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
-      <c r="B5" s="242"/>
+      <c r="A5" s="254"/>
+      <c r="B5" s="254"/>
       <c r="C5" s="256"/>
       <c r="D5" s="258"/>
       <c r="E5" s="258"/>
       <c r="F5" s="258"/>
       <c r="G5" s="260"/>
       <c r="H5" s="262"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="249" t="s">
+      <c r="I5" s="254"/>
+      <c r="J5" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="250"/>
-      <c r="L5" s="251" t="s">
+      <c r="K5" s="271"/>
+      <c r="L5" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="253" t="s">
+      <c r="N5" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253" t="s">
+      <c r="O5" s="274"/>
+      <c r="P5" s="274" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="253" t="s">
+      <c r="Q5" s="274" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="253" t="s">
+      <c r="R5" s="274" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
-      <c r="B6" s="242"/>
+      <c r="A6" s="254"/>
+      <c r="B6" s="254"/>
       <c r="C6" s="256"/>
       <c r="D6" s="258"/>
       <c r="E6" s="258"/>
       <c r="F6" s="258"/>
       <c r="G6" s="260"/>
       <c r="H6" s="262"/>
-      <c r="I6" s="242"/>
+      <c r="I6" s="254"/>
       <c r="J6" s="153" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="273"/>
       <c r="N6" s="155" t="s">
         <v>42</v>
       </c>
       <c r="O6" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="274"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="156">
@@ -6375,7 +6375,7 @@
       <c r="A8" s="160"/>
       <c r="B8" s="161"/>
       <c r="C8" s="162"/>
-      <c r="D8" s="274"/>
+      <c r="D8" s="218"/>
       <c r="E8" s="29"/>
       <c r="F8" s="22"/>
       <c r="G8" s="163"/>
@@ -6385,11 +6385,11 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="267"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="263">
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="207">
         <f>SUM(N8:Q8)</f>
         <v>0</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="A9" s="160"/>
       <c r="B9" s="161"/>
       <c r="C9" s="162"/>
-      <c r="D9" s="274"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="29"/>
       <c r="F9" s="22"/>
       <c r="G9" s="163"/>
@@ -6408,11 +6408,11 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="263">
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="207">
         <f t="shared" ref="R9:R10" si="0">SUM(N9:Q9)</f>
         <v>0</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="A10" s="160"/>
       <c r="B10" s="164"/>
       <c r="C10" s="162"/>
-      <c r="D10" s="274"/>
+      <c r="D10" s="218"/>
       <c r="E10" s="29"/>
       <c r="F10" s="22"/>
       <c r="G10" s="163"/>
@@ -6431,11 +6431,11 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="263">
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="207">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8201,12 +8201,12 @@
       <c r="R98" s="177"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="240"/>
-      <c r="B99" s="240"/>
-      <c r="C99" s="240"/>
-      <c r="D99" s="240"/>
-      <c r="E99" s="240"/>
-      <c r="F99" s="240"/>
+      <c r="A99" s="263"/>
+      <c r="B99" s="263"/>
+      <c r="C99" s="263"/>
+      <c r="D99" s="263"/>
+      <c r="E99" s="263"/>
+      <c r="F99" s="263"/>
       <c r="G99" s="200"/>
       <c r="H99" s="201"/>
       <c r="I99" s="202"/>
@@ -8235,16 +8235,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:M4"/>
@@ -8256,6 +8246,16 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
